--- a/medicine/Enfance/Jan_Terlouw/Jan_Terlouw.xlsx
+++ b/medicine/Enfance/Jan_Terlouw/Jan_Terlouw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jan Cornelis Terlouw, né le 15 novembre 1931 à Kamperveen, est un universitaire, écrivain et homme politique néerlandais membre des Démocrates 66 (D66).
@@ -514,16 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Débuts rapides
-Il rejoint les Démocrates 1966 (D'66) en janvier 1967. Il est élu au conseil municipal d'Utrecht en septembre 1970, puis député à la Seconde Chambre des États généraux le 28 avril 1971. Il devient chef politique et président du groupe parlementaire des D'66 deux ans plus tard, le 1er septembre 1973.
+          <t>Débuts rapides</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rejoint les Démocrates 1966 (D'66) en janvier 1967. Il est élu au conseil municipal d'Utrecht en septembre 1970, puis député à la Seconde Chambre des États généraux le 28 avril 1971. Il devient chef politique et président du groupe parlementaire des D'66 deux ans plus tard, le 1er septembre 1973.
 Chef de file du parti aux élections législatives de 1977, il obtient alors 145 000 voix et deux députés de plus que Hans van Mierlo au scrutin de 1972.
 Aux élections du 26 mai 1981, les D'66 signent leur premier véritable succès en totalisant 961 000 suffrages et 17 parlementaires. C'est à l'époque leur record, et cela reste en 2017 le troisième meilleur résultat de cette formation à travers son histoire.
-Participation au gouvernement
-Le 11 septembre 1981, Jan Terlouw est nommé à 49 ans Vice-Premier ministre et ministre des Affaires économiques dans le deuxième cabinet du Premier ministre chrétien-démocrate Dries van Agt. Après la rupture de la coalition et la formation d'un gouvernement temporaire le 29 mai 1982, il est confirmé dans ses responsabilités.
-Il renonce à la direction des Démocrates 1966 au soir des élections législatives anticipées du 8 septembre 1982, après que la formation a perdu les deux tiers de ses députés.
-Dernières années
-Un temps retiré de la politique, il est choisi le 1er novembre 1991 comme commissaire de la Reine dans la province de Gueldre. Il exerce ce poste pendant plus de cinq ans, étant relevé de ses fonctions le 1er décembre 1996.
-Il est élu sénateur à la Première Chambre des États généraux le 27 mai 1999. Après un seul mandat de quatre ans, il met définitivement un terme à sa carrière politique.
 </t>
         </is>
       </c>
@@ -549,10 +560,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Participation au gouvernement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 septembre 1981, Jan Terlouw est nommé à 49 ans Vice-Premier ministre et ministre des Affaires économiques dans le deuxième cabinet du Premier ministre chrétien-démocrate Dries van Agt. Après la rupture de la coalition et la formation d'un gouvernement temporaire le 29 mai 1982, il est confirmé dans ses responsabilités.
+Il renonce à la direction des Démocrates 1966 au soir des élections législatives anticipées du 8 septembre 1982, après que la formation a perdu les deux tiers de ses députés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jan_Terlouw</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jan_Terlouw</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dernières années</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un temps retiré de la politique, il est choisi le 1er novembre 1991 comme commissaire de la Reine dans la province de Gueldre. Il exerce ce poste pendant plus de cinq ans, étant relevé de ses fonctions le 1er décembre 1996.
+Il est élu sénateur à la Première Chambre des États généraux le 27 mai 1999. Après un seul mandat de quatre ans, il met définitivement un terme à sa carrière politique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jan_Terlouw</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jan_Terlouw</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1970 Oom Willibrord
 1970 Pjotr; vrijwillig verbannen naar Siberië
@@ -573,35 +662,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jan_Terlouw</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jan_Terlouw</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1972: Gouden Griffel pour Koning van Katoren
 1973: Gouden Griffel pour Oorlogswinter
-1974 : (international) « Honor List »[1], de l' IBBY, pour Oorlogswinter
+1974 : (international) « Honor List », de l' IBBY, pour Oorlogswinter
 1990: Prix du jury des enfants néerlandais, de 13 à 16 ans pour De kunstrijder
 2000: Selection du jeune jury pour Eigen rechter</t>
         </is>
